--- a/xlsx/2010年南非世界杯_intext.xlsx
+++ b/xlsx/2010年南非世界杯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1053">
   <si>
     <t>2010年南非世界杯</t>
   </si>
@@ -29,31 +29,31 @@
     <t>南非</t>
   </si>
   <si>
-    <t>政策_政策_美國_2010年南非世界杯</t>
+    <t>政策_政策_美国_2010年南非世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>義大利國家足球隊</t>
+    <t>义大利国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙國家足球隊</t>
+    <t>西班牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>荷蘭國家足球隊</t>
+    <t>荷兰国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>德國國家足球隊</t>
+    <t>德国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E4%BA%9E%E9%AB%98%C2%B7%E7%A7%91%E8%98%AD</t>
   </si>
   <si>
-    <t>迪亞高·科蘭</t>
+    <t>迪亚高·科兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E7%A9%86%E5%8B%92</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E5%A3%AB%C2%B7%E6%A2%85%E6%8B%BF</t>
   </si>
   <si>
-    <t>湯馬士·梅拿</t>
+    <t>汤马士·梅拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E9%96%80%E5%93%A1_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>守門員 (足球)</t>
+    <t>守门员 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%85%8B%E5%B0%94%C2%B7%E5%8D%A1%E8%A5%BF%E5%88%A9%E4%BA%9A%E6%96%AF</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2006年國際足協世界盃</t>
+    <t>2006年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2014年國際足協世界盃</t>
+    <t>2014年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94</t>
   </si>
   <si>
-    <t>國際足協</t>
+    <t>国际足协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協世界盃</t>
+    <t>国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽外圍賽</t>
+    <t>2010年世界杯足球赛外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BB%8E%E4%B8%96</t>
   </si>
   <si>
-    <t>蘇黎世</t>
+    <t>苏黎世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽</t>
+    <t>2010年世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%8F%AD</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
+    <t>开普敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E8%B6%B3%E5%8D%94</t>
   </si>
   <si>
-    <t>亞洲足協</t>
+    <t>亚洲足协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>日本國家足球隊</t>
+    <t>日本国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>朝鮮國家足球隊</t>
+    <t>朝鲜国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -239,103 +239,103 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>喀麥隆國家足球隊</t>
+    <t>喀麦隆国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>科特迪瓦國家足球隊</t>
+    <t>科特迪瓦国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%B4%8D%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>加納國家足球隊</t>
+    <t>加纳国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>奈及利亞國家足球隊</t>
+    <t>奈及利亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8C%97%E7%BE%8E%E6%B4%B2%E5%8F%8A%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中北美洲及加勒比海足球協會</t>
+    <t>中北美洲及加勒比海足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>洪都拉斯國家足球隊</t>
+    <t>洪都拉斯国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>墨西哥國家足球隊</t>
+    <t>墨西哥国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國家足球隊</t>
+    <t>美国国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E8%B6%B3%E5%8D%94</t>
   </si>
   <si>
-    <t>南美洲足協</t>
+    <t>南美洲足协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>阿根廷國家足球隊</t>
+    <t>阿根廷国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西國家足球隊</t>
+    <t>巴西国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>智利國家足球隊</t>
+    <t>智利国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴拉圭國家足球隊</t>
+    <t>巴拉圭国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E8%B6%B3%E5%8D%94</t>
   </si>
   <si>
-    <t>大洋洲足協</t>
+    <t>大洋洲足协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>新西蘭國家足球隊</t>
+    <t>新西兰国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%B6%B3%E5%8D%94</t>
   </si>
   <si>
-    <t>歐洲足協</t>
+    <t>欧洲足协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>丹麥國家足球隊</t>
+    <t>丹麦国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -353,25 +353,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>希臘國家足球隊</t>
+    <t>希腊国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>葡萄牙國家足球隊</t>
+    <t>葡萄牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>塞爾維亞國家足球隊</t>
+    <t>塞尔维亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>斯洛伐克國家足球隊</t>
+    <t>斯洛伐克国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E7%A8%AE%E5%AD%90%E9%9A%8A</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽種子隊</t>
+    <t>2010年世界杯足球赛种子队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E7%B1%A4</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E8%B6%B3%E7%90%83%E4%BB%A3%E8%A1%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>英格蘭足球代表隊</t>
+    <t>英格兰足球代表队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E8%B4%9D%E5%85%8B%E6%B1%89%E5%A7%86</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>橄欖球</t>
+    <t>橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B410%E6%9C%88</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際足協世界排名</t>
+    <t>国际足协世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E6%B3%89</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%B0%BC%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>約翰尼斯堡</t>
+    <t>约翰尼斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E4%BC%AF%E5%88%A9</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E6%96%AF%E6%99%AE%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>尼爾斯普魯特</t>
+    <t>尼尔斯普鲁特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E5%B0%BC</t>
   </si>
   <si>
-    <t>奧克尼</t>
+    <t>奥克尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E5%85%8B%E7%93%A6%E5%B0%BC</t>
   </si>
   <si>
-    <t>波羅克瓦尼</t>
+    <t>波罗克瓦尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%E6%B8%AF</t>
@@ -491,73 +491,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E5%9F%8E%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>足球城體育場</t>
+    <t>足球城体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%C2%B7%E9%A6%AC%E5%B8%83%E6%B5%B7%E9%81%94%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>摩西·馬布海達體育場</t>
+    <t>摩西·马布海达体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>開普敦球場</t>
+    <t>开普敦球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E5%85%AC%E5%9C%92%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>埃利斯公園球場</t>
+    <t>埃利斯公园球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8B%92%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>普勒托利亞</t>
+    <t>普勒托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%96%AF%E7%99%BB%E5%A0%A1</t>
   </si>
   <si>
-    <t>魯斯登堡</t>
+    <t>鲁斯登堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%A4%AB%E6%89%98%E6%96%AF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>洛夫托斯球場</t>
+    <t>洛夫托斯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89%E6%B5%B7%E7%81%A3%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>納爾遜·曼德拉海灣球場</t>
+    <t>纳尔逊·曼德拉海湾球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B7%9E%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由州球場</t>
+    <t>自由州球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E8%8E%AB%E5%8D%A1%E5%B7%B4%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>彼得·莫卡巴球場</t>
+    <t>彼得·莫卡巴球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%8F%AD%E5%B7%B4%E5%A4%AB%E8%82%AF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>皇家班巴夫肯球場</t>
+    <t>皇家班巴夫肯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%8D%9A%E8%B2%9D%E6%8B%89%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>姆博貝拉球場</t>
+    <t>姆博贝拉球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -569,9 +569,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>开普敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B0%94%E6%96%AF%E6%99%AE%E9%9B%B7%E7%89%B9</t>
   </si>
   <si>
@@ -587,13 +584,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%A6%AC%E6%9D%9C%E5%A4%AB</t>
   </si>
   <si>
-    <t>伊馬杜夫</t>
+    <t>伊马杜夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94-%E5%93%88%E5%A7%86%E8%BF%AA</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%B0%94%E5%A7%86%C2%B7%E9%81%94%E8%92%99</t>
   </si>
   <si>
-    <t>杰尔姆·達蒙</t>
+    <t>杰尔姆·达蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%BF%AA%C2%B7%E9%BA%A6%E8%8E%B1</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E7%88%BE%C2%B7%E9%98%BF%E5%90%89%E6%8B%89%E7%88%BE</t>
   </si>
   <si>
-    <t>喬爾·阿吉拉爾</t>
+    <t>乔尔·阿吉拉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E5%A4%9A%C2%B7%E9%98%BF%E7%90%9B%E8%BF%AA%E4%BA%9A</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%94%B0%C2%B7%E6%BC%A2%E8%87%A3</t>
   </si>
   <si>
-    <t>馬田·漢臣</t>
+    <t>马田·汉臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E6%89%98%C2%B7%E5%8D%A1%E8%B5%9B</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%E5%9C%96%C2%B7%E6%B4%9B%E9%8C%AB%E8%BF%AA</t>
   </si>
   <si>
-    <t>羅拔圖·洛錫迪</t>
+    <t>罗拔图·洛锡迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E5%A4%AB%E5%86%88%C2%B7%E6%96%AF%E5%A1%94%E5%85%8B</t>
@@ -773,25 +770,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E6%B4%BB%C2%B7%E9%9F%8B%E6%AF%94</t>
   </si>
   <si>
-    <t>侯活·韋比</t>
+    <t>侯活·韦比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>斯洛文尼亞國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E9%80%A3%C2%B7%E4%B8%B9%E6%99%AE%E8%A5%BF</t>
   </si>
   <si>
-    <t>奇連·丹普西</t>
+    <t>奇连·丹普西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E5%9D%A6%C2%B7%E9%9A%86%E6%AF%94%E7%9C%9F%E6%AD%B7</t>
   </si>
   <si>
-    <t>薩拉坦·隆比真歷</t>
+    <t>萨拉坦·隆比真历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E7%89%8C</t>
@@ -815,19 +809,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A0%B4</t>
   </si>
   <si>
-    <t>中場</t>
+    <t>中场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%A0%93%C2%B7%E7%95%B6%E5%A5%B4%E9%9B%B2</t>
   </si>
   <si>
-    <t>蘭頓·當奴雲</t>
+    <t>兰顿·当奴云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>澳洲國家足球隊</t>
+    <t>澳洲国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A4%9A%E7%B1%B3%E5%B0%94%C2%B7%E5%AE%89%E8%92%82%E5%A5%87</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E5%8D%A1%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>蒂姆·卡希爾</t>
+    <t>蒂姆·卡希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E5%87%AF%E7%BB%B4%E5%B0%94</t>
@@ -851,9 +845,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>英格蘭國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%B8%95%E5%BE%B7</t>
   </si>
   <si>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%AF%E7%A4%BE</t>
   </si>
   <si>
-    <t>美聯社</t>
+    <t>美联社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3</t>
@@ -893,25 +884,25 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%BA%8C%E5%8D%81%E5%9C%8B%E9%9B%86%E5%9C%98%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>2010年二十國集團多倫多峰會</t>
+    <t>2010年二十国集团多伦多峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>德國總理</t>
+    <t>德国总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -953,31 +944,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E8%98%AD%E8%BF%AA</t>
   </si>
   <si>
-    <t>洛蘭迪</t>
+    <t>洛兰迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%B0%BC%E6%96%AF%E9%81%94</t>
   </si>
   <si>
-    <t>恩尼斯達</t>
+    <t>恩尼斯达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%B6%AD</t>
   </si>
   <si>
-    <t>沙維</t>
+    <t>沙维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%8B%BF</t>
   </si>
   <si>
-    <t>韋拿</t>
+    <t>韦拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A1%9B_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>後衛 (足球)</t>
+    <t>后卫 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BD%A9%E8%A5%BF</t>
@@ -995,25 +986,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%8D%97%E5%A4%9A%C2%B7%E7%A9%86%E6%96%AF%E8%90%8A%E6%8B%89</t>
   </si>
   <si>
-    <t>費爾南多·穆斯萊拉</t>
+    <t>费尔南多·穆斯莱拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD</t>
   </si>
   <si>
-    <t>國際足總</t>
+    <t>国际足总</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E5%9B%BD%E5%AE%B6%E8%B6%B3%E7%90%83%E9%98%9F</t>
   </si>
   <si>
-    <t>荷兰国家足球队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A5%96%E8%BF%AA%E8%8E%8A</t>
   </si>
   <si>
-    <t>尼祖迪莊</t>
+    <t>尼祖迪庄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%AF%94%C2%B7%E9%98%BF%E6%9C%97%E7%B4%A0</t>
@@ -1025,13 +1013,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E9%AD%AF%E5%A4%AB</t>
   </si>
   <si>
-    <t>告魯夫</t>
+    <t>告鲁夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E5%8F%83%E8%B3%BD%E5%90%8D%E5%96%AE</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽參賽名單</t>
+    <t>2010年世界杯足球赛参赛名单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B%E8%B5%9B%E7%A8%8B%E8%A1%A8</t>
@@ -1055,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>國家標準時間</t>
+    <t>国家标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>香港時間</t>
+    <t>香港时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%2B8</t>
@@ -1073,37 +1061,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>法國國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2002年國際足協世界盃</t>
+    <t>2002年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>韓國國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>阿爾及利亞國家足球隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E4%B9%8B%E7%B5%84</t>
   </si>
   <si>
-    <t>死亡之組</t>
+    <t>死亡之组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%BE%8D%E7%90%83</t>
   </si>
   <si>
-    <t>烏龍球</t>
+    <t>乌龙球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E5%9C%AD%E4%BD%91</t>
@@ -1115,37 +1094,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E8%97%A4%E4%BF%9D%E4%BB%81</t>
   </si>
   <si>
-    <t>遠藤保仁</t>
+    <t>远藤保仁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>意大利國家足球隊</t>
+    <t>意大利国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%8D%80)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (南美洲區)</t>
+    <t>2010年世界杯外围赛 (南美洲区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>北韓國家足球隊</t>
+    <t>北韩国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1966%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1966年國際足協世界盃</t>
+    <t>1966年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83A%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃A組</t>
+    <t>2010年国际足协世界杯A组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%B4%B9%E9%9F%A6%C2%B7%E6%B2%99%E5%B7%B4%E6%8B%89%E6%8B%89</t>
@@ -1163,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>約翰內斯堡</t>
+    <t>约翰内斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E5%9F%8E%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>足球城球場</t>
+    <t>足球城球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6%E8%B6%B3%E7%90%83%E5%8D%8F%E4%BC%9A</t>
@@ -1181,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%9E%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>綠點球場</t>
+    <t>绿点球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%9A%E7%82%B9%E7%90%83</t>
@@ -1193,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8F%AF%E8%B7%AF%C2%B7%E5%BD%AD%E5%88%A9%E6%8B%BF</t>
   </si>
   <si>
-    <t>艾華路·彭利拿</t>
+    <t>艾华路·彭利拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BB%B4%E5%B0%94%C2%B7%E5%9F%83%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF</t>
@@ -1205,25 +1184,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%A5%A7%E7%89%B9%E8%8E%AB%E5%85%8B%C2%B7%E7%99%BD%E8%98%AD%E9%AB%98</t>
   </si>
   <si>
-    <t>庫奧特莫克·白蘭高</t>
+    <t>库奥特莫克·白兰高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>沙特阿拉伯足球協會</t>
+    <t>沙特阿拉伯足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E8%98%87%E4%BA%9E%E9%9B%B7%E6%96%AF_(%E7%83%8F%E6%8B%89%E5%9C%AD%E8%B6%B3%E7%90%83%E9%81%8B%E5%8B%95%E5%93%A1)</t>
   </si>
   <si>
-    <t>路易斯·蘇亞雷斯 (烏拉圭足球運動員)</t>
+    <t>路易斯·苏亚雷斯 (乌拉圭足球运动员)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>匈牙利足球總會</t>
+    <t>匈牙利足球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%C2%B7%E9%A9%AC%E5%8D%A2%E8%BE%BE</t>
@@ -1259,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83B%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃B組</t>
+    <t>2010年国际足协世界杯B组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E6%AC%A7%E6%B4%B2%E5%9B%BD%E5%AE%B6%E6%9D%AF</t>
@@ -1271,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>尼日利亞國家足球隊</t>
+    <t>尼日利亚国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%AD%A3%E7%A7%80</t>
@@ -1289,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89%E7%81%A3%E6%B5%B7%E7%81%A3%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>納爾遜·曼德拉灣海灣球場</t>
+    <t>纳尔逊·曼德拉湾海湾球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>新西蘭足球協會</t>
+    <t>新西兰足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A4%AB%E5%88%97%E5%B0%94%C2%B7%E6%B5%B7%E5%9B%A0%E7%AD%96</t>
@@ -1307,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%B6%B3%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>德國足球總會</t>
+    <t>德国足球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E4%B8%BB%E6%B0%B8</t>
@@ -1325,25 +1304,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%9D%92%E9%BE%8D</t>
   </si>
   <si>
-    <t>李青龍</t>
+    <t>李青龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>比利時足球協會</t>
+    <t>比利时足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BE%8E%E8%BF%AA%E6%96%AF%C2%B7%E6%B2%99%E8%B3%93%E5%9F%BA%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>迪美迪斯·沙賓基迪斯</t>
+    <t>迪美迪斯·沙宾基迪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%96%AF%E5%88%A9%E6%96%AF%C2%B7%E6%89%98%E8%B7%AF%E6%96%AF%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>華斯利斯·托路斯迪斯</t>
+    <t>华斯利斯·托路斯迪斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kalu_Uche</t>
@@ -1367,13 +1346,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%94%B0%C2%B7%E5%B7%B4%E5%8B%92%E8%8E%AB</t>
   </si>
   <si>
-    <t>馬田·巴勒莫</t>
+    <t>马田·巴勒莫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83C%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃C組</t>
+    <t>2010年国际足协世界杯C组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%A2%85%E6%81%A9%C2%B7%E8%BF%AA%E7%A6%8F</t>
@@ -1397,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%C2%B7%E9%AB%98%E5%80%AB</t>
   </si>
   <si>
-    <t>羅拔·高倫</t>
+    <t>罗拔·高伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E9%81%94%C2%B7%E6%AF%94%E6%B2%99</t>
   </si>
   <si>
-    <t>華達·比沙</t>
+    <t>华达·比沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E5%B8%83%E6%8B%89%E5%BE%B7%E5%88%A9</t>
@@ -1415,19 +1394,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>馬里足球協會</t>
+    <t>马里足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83D%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃D組</t>
+    <t>2010年国际足协世界杯D组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E7%A2%BC</t>
   </si>
   <si>
-    <t>十二碼</t>
+    <t>十二码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%90%A8%E8%8E%AB%E9%98%BF%C2%B7%E5%90%89%E5%AE%89</t>
@@ -1457,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%C2%B7%E7%A5%96%E9%9B%B2%E5%A5%B4%E5%9F%9F</t>
   </si>
   <si>
-    <t>米蘭·祖雲奴域</t>
+    <t>米兰·祖云奴域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%97%C2%B7%E8%B3%80%E6%96%87</t>
   </si>
   <si>
-    <t>比列·賀文</t>
+    <t>比列·贺文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%8B%8F%E7%89%B9%C2%B7%E5%8E%84%E9%BD%90%E5%B0%94</t>
@@ -1475,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E7%A7%91%C2%B7%E6%BD%98%E7%89%B9%E5%88%A9%E5%A5%87</t>
   </si>
   <si>
-    <t>馬爾科·潘特利奇</t>
+    <t>马尔科·潘特利奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83E%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃E組</t>
+    <t>2010年国际足协世界杯E组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E9%98%BF%E6%A0%BC</t>
@@ -1523,9 +1502,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E8%97%A4%E4%BF%9D%E4%BB%81</t>
   </si>
   <si>
-    <t>远藤保仁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E5%B4%8E%E6%85%8E%E5%8F%B8</t>
   </si>
   <si>
@@ -1535,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%B3%93%C2%B7%E8%8C%83%E4%BD%A9%E8%A5%BF</t>
   </si>
   <si>
-    <t>羅賓·范佩西</t>
+    <t>罗宾·范佩西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%96%AF-%E6%89%AC%C2%B7%E4%BA%A8%E7%89%B9%E6%8B%89%E5%B0%94</t>
@@ -1547,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83F%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃F組</t>
+    <t>2010年国际足协世界杯F组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%BC%E5%9F%83%E8%8E%B1%C2%B7%E5%BE%B7%E7%BD%97%E8%A5%BF</t>
@@ -1565,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E6%96%AF%E9%A0%93%C2%B7%E5%88%97%E7%89%B9</t>
   </si>
   <si>
-    <t>雲斯頓·列特</t>
+    <t>云斯顿·列特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%BB%B4%E7%89%B9%E5%85%8B</t>
@@ -1589,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E7%88%BE%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>塞舌爾足球協會</t>
+    <t>塞舌尔足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E7%90%B4%E4%BD%90%C2%B7%E4%BA%9A%E6%98%86%E5%A1%94</t>
@@ -1607,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>危地馬拉國家足球協會</t>
+    <t>危地马拉国家足球协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kamil_Kop%C3%BAnek</t>
@@ -1631,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83G%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃G組</t>
+    <t>2010年国际足协世界杯G组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%AD%94%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E8%A5%BF%E5%A1%9E%E5%8D%97%E5%A4%9A</t>
@@ -1721,13 +1697,13 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83H%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年國際足協世界盃H組</t>
+    <t>2010年国际足协世界杯H组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1962年國際足協世界盃</t>
+    <t>1962年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E5%8D%9A%E5%A1%9E%E8%8C%B9%E5%B0%94</t>
@@ -1739,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E8%87%A3%C2%B7%E8%B2%BB%E5%8D%97%E8%BF%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>謝臣·費南迪斯</t>
+    <t>谢臣·费南迪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%86%88%E8%90%A8%E9%9B%B7%E6%96%AF</t>
@@ -1763,31 +1739,31 @@
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1998年世界盃足球賽</t>
+    <t>1998年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1990年世界盃足球賽</t>
+    <t>1990年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1970年世界盃足球賽</t>
+    <t>1970年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1978年世界盃足球賽</t>
+    <t>1978年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B7%98%E6%B1%B0%E8%B3%BD%E9%9A%8E%E6%AE%B5</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽淘汰賽階段</t>
+    <t>2010年世界杯足球赛淘汰赛阶段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4</t>
@@ -1799,19 +1775,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%B0%84%E5%8D%81%E4%BA%8C%E7%A2%BC</t>
   </si>
   <si>
-    <t>互射十二碼</t>
+    <t>互射十二码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%99%82%E8%B3%BD</t>
   </si>
   <si>
-    <t>加時賽</t>
+    <t>加时赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E9%9B%B2%C2%B7%E4%BF%9D%E5%AE%9A</t>
   </si>
   <si>
-    <t>奇雲·保定</t>
+    <t>奇云·保定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BF%AE%C2%B7%E5%8E%84%E6%99%AE%E6%A3%AE</t>
@@ -1829,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%9A%C2%B7%E7%BE%85%E6%9C%AC</t>
   </si>
   <si>
-    <t>阿揚·羅本</t>
+    <t>阿扬·罗本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%A5%BF%E5%B0%94%E7%BB%B4%E6%8B%89%C2%B7%E5%A4%9A%E6%96%AF%C2%B7%E6%A1%91%E6%89%98%E6%96%AF</t>
@@ -1865,19 +1841,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E5%8D%A1%E5%BA%A6%E7%B4%A0</t>
   </si>
   <si>
-    <t>奧斯卡·卡度素</t>
+    <t>奥斯卡·卡度素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%B0%B7%E9%83%A8%E8%AA%A0</t>
   </si>
   <si>
-    <t>長谷部誠</t>
+    <t>长谷部诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%92%E9%87%8E%E5%8F%8B%E4%B8%80</t>
   </si>
   <si>
-    <t>駒野友一</t>
+    <t>驹野友一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%88%A9%C2%B7%E8%92%99%E5%A1%94%E9%87%8C</t>
@@ -1901,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%C2%B7%E5%BD%AD%E5%88%A9%E6%8B%BF</t>
   </si>
   <si>
-    <t>麥斯·彭利拿</t>
+    <t>麦斯·彭利拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B7%B4%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E9%98%BF%E5%B8%83%E9%B2%81</t>
@@ -1985,19 +1961,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%9B%85%E8%BE%9B%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃雅辛獎</t>
+    <t>世界杯雅辛奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E4%BA%9E%E5%93%A5%C2%B7%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>迪亞哥·佛蘭</t>
+    <t>迪亚哥·佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E5%B0%87</t>
   </si>
   <si>
-    <t>門將</t>
+    <t>门将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%8B%BF%E6%96%AF</t>
@@ -2015,49 +1991,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A5%A7%E7%88%BE</t>
   </si>
   <si>
-    <t>佩奧爾</t>
+    <t>佩奥尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%B2%BB%E5%A5%A7%C2%B7%E6%8B%89%E8%8E%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>沙治奧·拉莫斯</t>
+    <t>沙治奥·拉莫斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B9%B2</t>
   </si>
   <si>
-    <t>馬干</t>
+    <t>马干</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%92%E9%9F%8B%E6%81%A9%E5%8F%B2%E8%BF%AA%E5%8A%A0</t>
   </si>
   <si>
-    <t>舒韋恩史迪加</t>
+    <t>舒韦恩史迪加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%8B%92_(%E8%B6%B3%E7%90%83)</t>
   </si>
   <si>
-    <t>前鋒 (足球)</t>
+    <t>前锋 (足球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E9%9F%8B%E6%8B%BF</t>
   </si>
   <si>
-    <t>大衛·韋拿</t>
+    <t>大卫·韦拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E7%B5%B1%E8%A8%88</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽統計</t>
+    <t>2010年世界杯足球赛统计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1930年世界盃足球賽</t>
+    <t>1930年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E</t>
@@ -2069,13 +2045,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>南韓國家足球隊</t>
+    <t>南韩国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1986年世界盃足球賽</t>
+    <t>1986年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E4%B8%96%E7%95%8C%E6%9D%AF</t>
@@ -2087,19 +2063,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%B6%AD%E9%82%A3%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>波斯尼亞和黑塞哥維那國家足球隊</t>
+    <t>波斯尼亚和黑塞哥维那国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E6%8C%87%E5%AE%9A%E7%94%A8%E7%90%83</t>
   </si>
   <si>
-    <t>世界盃指定用球</t>
+    <t>世界杯指定用球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E9%AD%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>祖魯語</t>
+    <t>祖鲁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%A4%A9%E5%90%8C%E5%BA%86</t>
@@ -2111,13 +2087,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E9%81%94%E6%96%AF</t>
   </si>
   <si>
-    <t>阿迪達斯</t>
+    <t>阿迪达斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>顏色</t>
+    <t>颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2</t>
@@ -2135,9 +2111,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E5%B0%BC%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>约翰尼斯堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E9%9B%AA</t>
   </si>
   <si>
@@ -2153,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>香港有線電視</t>
+    <t>香港有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%88%A9%E5%A5%A5%C2%B7%E5%A1%9E%E8%90%A8%E5%B0%94</t>
@@ -2177,31 +2150,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
+    <t>加州理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>工程師</t>
+    <t>工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E5%90%89%E7%A5%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>世界盃吉祥物</t>
+    <t>世界杯吉祥物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%BA%AB%E7%B1%B3</t>
   </si>
   <si>
-    <t>扎庫米</t>
+    <t>扎库米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%AC%E4%BA%BA%E5%8C%96</t>
   </si>
   <si>
-    <t>擬人化</t>
+    <t>拟人化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%B9</t>
@@ -2303,25 +2276,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%BF%AA%E9%81%94</t>
   </si>
   <si>
-    <t>愛迪達</t>
+    <t>爱迪达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>阿聯酋國際航空</t>
+    <t>阿联酋国际航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>可口可樂</t>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>現代集團</t>
+    <t>现代集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VISA</t>
@@ -2345,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
   </si>
   <si>
-    <t>麥當勞</t>
+    <t>麦当劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%88%A9</t>
@@ -2363,19 +2336,19 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B3%BD%E4%BA%8B%E6%92%AD%E6%94%BE%E6%AC%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2010年世界盃賽事播放權列表</t>
+    <t>2010年世界杯赛事播放权列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年世界盃足球賽</t>
+    <t>2014年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E9%A6%99%E6%B8%AF%E9%9B%BB%E8%A6%96%E8%BD%89%E6%92%AD%E6%AC%8A%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>2010年世界盃香港電視轉播權爭議</t>
+    <t>2010年世界杯香港电视转播权争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -2387,37 +2360,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%B2%BB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>收費電視</t>
+    <t>收费电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E7%AC%AC1%E5%8F%B0</t>
   </si>
   <si>
-    <t>有線第1台</t>
+    <t>有线第1台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>無線電視廣播有限公司</t>
+    <t>无线电视广播有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>亞洲電視</t>
+    <t>亚洲电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%A2%BC%E5%99%A8</t>
   </si>
   <si>
-    <t>解碼器</t>
+    <t>解码器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E6%84%8F%E5%A4%A7%E5%88%A9%E4%B8%96%E7%95%8C%E6%9D%AF</t>
@@ -2429,43 +2402,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E8%89%BE%E6%A0%BC</t>
   </si>
   <si>
-    <t>丹尼爾·艾格</t>
+    <t>丹尼尔·艾格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>浸會大學</t>
+    <t>浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>厄瓜多爾國家足球隊</t>
+    <t>厄瓜多尔国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E8%AD%89</t>
   </si>
   <si>
-    <t>球證</t>
+    <t>球证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>危地馬拉</t>
+    <t>危地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -2513,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E6%B4%B2%E9%9A%9B%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>2009年洲際國家盃</t>
+    <t>2009年洲际国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%B4%A2%E6%B4%9B%E6%89%8E</t>
@@ -2531,319 +2504,313 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽</t>
+    <t>2010年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E6%AD%90%E6%B4%B2%E5%8D%80)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (歐洲區)</t>
+    <t>2010年世界杯外围赛 (欧洲区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E9%9D%9E%E6%B4%B2%E5%8D%80)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (非洲區)</t>
+    <t>2010年世界杯外围赛 (非洲区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E4%BA%9E%E6%B4%B2%E5%8D%80)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (亞洲區)</t>
+    <t>2010年世界杯外围赛 (亚洲区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E5%A4%A7%E6%B4%8B%E6%B4%B2%E5%8D%80)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (大洋洲區)</t>
+    <t>2010年世界杯外围赛 (大洋洲区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD_(%E6%B4%B2%E9%9A%9B%E9%99%84%E5%8A%A0%E8%B3%BD)</t>
   </si>
   <si>
-    <t>2010年世界盃外圍賽 (洲際附加賽)</t>
+    <t>2010年世界杯外围赛 (洲际附加赛)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1A%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週A組</t>
+    <t>2010年世界杯足球赛决赛周A组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1B%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週B組</t>
+    <t>2010年世界杯足球赛决赛周B组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1C%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週C組</t>
+    <t>2010年世界杯足球赛决赛周C组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1D%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週D組</t>
+    <t>2010年世界杯足球赛决赛周D组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1E%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週E組</t>
+    <t>2010年世界杯足球赛决赛周E组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1F%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週F組</t>
+    <t>2010年世界杯足球赛决赛周F组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1G%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週G組</t>
+    <t>2010年世界杯足球赛决赛周G组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1H%E7%B5%84</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽週H組</t>
+    <t>2010年世界杯足球赛决赛周H组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽決賽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E9%AD%9A%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>章魚保羅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%9C%88</t>
   </si>
   <si>
-    <t>Template talk-2010年世界盃足球賽決賽圈</t>
+    <t>Template talk-2010年世界杯足球赛决赛圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1930年國際足協世界盃</t>
+    <t>1930年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1934%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1934年國際足協世界盃</t>
+    <t>1934年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1938%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1938年國際足協世界盃</t>
+    <t>1938年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1950年國際足協世界盃</t>
+    <t>1950年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1954%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1954年國際足協世界盃</t>
+    <t>1954年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1958年國際足協世界盃</t>
+    <t>1958年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1970年國際足協世界盃</t>
+    <t>1970年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1974%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1974年國際足協世界盃</t>
+    <t>1974年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1978年國際足協世界盃</t>
+    <t>1978年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1982年國際足協世界盃</t>
+    <t>1982年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1986年國際足協世界盃</t>
+    <t>1986年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1990年國際足協世界盃</t>
+    <t>1990年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1994年國際足協世界盃</t>
+    <t>1994年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>1998年國際足協世界盃</t>
+    <t>1998年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2018%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2018年國際足協世界盃</t>
+    <t>2018年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2022%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2022年國際足協世界盃</t>
+    <t>2022年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2026%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2026年國際足協世界盃</t>
+    <t>2026年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2030%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>2030年國際足協世界盃</t>
+    <t>2030年国际足协世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>國際足協世界盃外圍賽</t>
+    <t>国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1934%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1934年國際足協世界盃外圍賽</t>
+    <t>1934年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1954%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1954年國際足協世界盃外圍賽</t>
+    <t>1954年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1962年國際足協世界盃外圍賽</t>
+    <t>1962年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1986%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1986年國際足協世界盃外圍賽</t>
+    <t>1986年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>1994年國際足協世界盃外圍賽</t>
+    <t>1994年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2006年國際足協世界盃外圍賽</t>
+    <t>2006年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年國際足協世界盃外圍賽</t>
+    <t>2014年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2018%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E5%A4%96%E5%9C%8D%E8%B3%BD</t>
   </si>
   <si>
-    <t>2018年國際足協世界盃外圍賽</t>
+    <t>2018年国际足协世界杯外围赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1938%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1938年國際足協世界盃決賽</t>
+    <t>1938年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%B0%8D%E5%B7%B4%E8%A5%BF_(1950%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83)</t>
   </si>
   <si>
-    <t>烏拉圭對巴西 (1950年國際足協世界盃)</t>
+    <t>乌拉圭对巴西 (1950年国际足协世界杯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1958年國際足協世界盃決賽</t>
+    <t>1958年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1966%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1966年國際足協世界盃決賽</t>
+    <t>1966年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1970年國際足協世界盃決賽</t>
+    <t>1970年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1974%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1974年國際足協世界盃決賽</t>
+    <t>1974年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>1982年國際足協世界盃決賽</t>
+    <t>1982年国际足协世界杯决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E6%A6%AE%E8%AD%BD</t>
   </si>
   <si>
-    <t>世界盃榮譽</t>
+    <t>世界杯荣誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E9%87%91%E6%89%8B%E5%A5%97%E7%8D%8E</t>
   </si>
   <si>
-    <t>世界盃金手套獎</t>
+    <t>世界杯金手套奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E6%9C%80%E4%BD%B3%E5%B9%B4%E9%9D%92%E7%90%83%E5%91%98</t>
@@ -2855,31 +2822,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%B8%96%E7%95%8C%E7%9B%83%E7%8D%8E%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協世界盃獎盃</t>
+    <t>国际足协世界杯奖杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>世界盃足球賽紀錄</t>
+    <t>世界杯足球赛纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃足球賽主辦國</t>
+    <t>世界杯足球赛主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E5%85%A5%E7%90%83%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽入球列表</t>
+    <t>世界杯足球赛入球列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E6%A2%A6%E5%B9%BB%E9%98%B5%E5%AE%B9</t>
@@ -2891,7 +2858,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E9%80%B1%E5%8F%83%E8%B3%BD%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽週參賽球隊</t>
+    <t>世界杯足球赛决赛周参赛球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
@@ -2909,31 +2876,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家足球隊列表</t>
+    <t>国家足球队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>足球比賽</t>
+    <t>足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94U-17%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協U-17世界盃</t>
+    <t>国际足协U-17世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94U-20%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足協U-20世界盃</t>
+    <t>国际足协U-20世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E6%B4%B2%E9%9A%9B%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>國際足總洲際國家盃</t>
+    <t>国际足总洲际国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E8%B6%B3%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -2945,37 +2912,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E9%9D%92%E5%B9%B4%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季青年奧林匹克運動會足球比賽</t>
+    <t>夏季青年奥林匹克运动会足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E7%94%9F%E9%81%8B%E5%8B%95%E6%9C%83%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季世界大學生運動會足球比賽</t>
+    <t>夏季世界大学生运动会足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E6%9C%80%E4%BD%B3%E8%B6%B3%E7%90%83%E7%8D%8E</t>
   </si>
   <si>
-    <t>國際足總最佳足球獎</t>
+    <t>国际足总最佳足球奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>非洲足球協會</t>
+    <t>非洲足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>非洲國家盃</t>
+    <t>非洲国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2U-23%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>非洲U-23國家盃</t>
+    <t>非洲U-23国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E8%B6%B3%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -2993,43 +2960,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%B6%B3%E8%81%AFU-19%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞足聯U-19錦標賽</t>
+    <t>亚足联U-19锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%B6%B3%E8%81%AFU-16%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞足聯U-16錦標賽</t>
+    <t>亚足联U-16锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%9F%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>東盟足球錦標賽</t>
+    <t>东盟足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>東亞足球錦標賽</t>
+    <t>东亚足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>南亞足球錦標賽</t>
+    <t>南亚足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>西亞足球錦標賽</t>
+    <t>西亚足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲足球協會聯盟</t>
+    <t>欧洲足球协会联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%B6%B3%E7%90%83%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -3041,67 +3008,67 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%B6%B3%E8%81%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐足聯國家聯賽</t>
+    <t>欧足联国家联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2U-21%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲U-21足球錦標賽</t>
+    <t>欧洲U-21足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%87%91%E7%9B%83</t>
   </si>
   <si>
-    <t>美洲金盃</t>
+    <t>美洲金杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E7%9B%83</t>
   </si>
   <si>
-    <t>加勒比海盃</t>
+    <t>加勒比海杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>中美洲國家盃</t>
+    <t>中美洲国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>大洋洲足球協會</t>
+    <t>大洋洲足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>大洋洲國家盃</t>
+    <t>大洋洲国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>南美洲足球協會</t>
+    <t>南美洲足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>美洲盃足球賽</t>
+    <t>美洲杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2U-15%E8%B6%B3%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>南美洲U-15足球錦標賽</t>
+    <t>南美洲U-15足球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>非國際足總足球</t>
+    <t>非国际足总足球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%B6%B3%E7%90%83%E8%81%94%E7%9B%9F%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -3113,13 +3080,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%AD%B2%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>萬歲世界盃</t>
+    <t>万岁世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>獨立足球協會聯合會</t>
+    <t>独立足球协会联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%B2%9B%E5%9B%BD%E8%BF%90%E5%8A%A8%E4%BC%9A%E8%B6%B3%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -3131,13 +3098,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>綜合運動會</t>
+    <t>综合运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>非洲運動會足球比賽</t>
+    <t>非洲运动会足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E8%BF%90%E5%8A%A8%E4%BC%9A%E8%B6%B3%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -3149,25 +3116,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>中美洲運動會足球比賽</t>
+    <t>中美洲运动会足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E9%81%8B%E5%8B%95%E6%9C%83%E8%B6%B3%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>泛美運動會足球比賽</t>
+    <t>泛美运动会足球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E5%9C%8B%E5%AE%B6%E4%BB%A3%E7%A2%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際足總國家代碼列表</t>
+    <t>国际足总国家代码列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80%E6%9C%80%E4%BD%B3%E7%90%83%E6%9C%83</t>
   </si>
   <si>
-    <t>國際足協二十世紀最佳球會</t>
+    <t>国际足协二十世纪最佳球会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E8%B6%B3%E7%90%83</t>
@@ -3179,7 +3146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -6245,7 +6212,7 @@
         <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6271,10 +6238,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6329,10 +6296,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -6358,10 +6325,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6387,10 +6354,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -6416,10 +6383,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6445,10 +6412,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6474,10 +6441,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6503,10 +6470,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -6532,10 +6499,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -6561,10 +6528,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -6590,10 +6557,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6619,10 +6586,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6648,10 +6615,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -6677,10 +6644,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6706,10 +6673,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6735,10 +6702,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -6764,10 +6731,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -6793,10 +6760,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -6822,10 +6789,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6851,10 +6818,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6880,10 +6847,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6909,10 +6876,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6938,10 +6905,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6967,10 +6934,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6996,10 +6963,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -7025,10 +6992,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7054,10 +7021,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -7083,10 +7050,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7112,10 +7079,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -7141,10 +7108,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -7170,10 +7137,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -7199,10 +7166,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -7228,10 +7195,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -7257,10 +7224,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>5</v>
@@ -7315,10 +7282,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7344,10 +7311,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7373,10 +7340,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7402,10 +7369,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -7431,10 +7398,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7460,10 +7427,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7489,10 +7456,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -7518,10 +7485,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>7</v>
@@ -7547,10 +7514,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>8</v>
@@ -7576,10 +7543,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7605,10 +7572,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7634,10 +7601,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7663,10 +7630,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="G142" t="n">
         <v>12</v>
@@ -7692,10 +7659,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7721,10 +7688,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -7750,10 +7717,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7779,10 +7746,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7808,10 +7775,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>21</v>
@@ -7837,10 +7804,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7866,10 +7833,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7895,10 +7862,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7924,10 +7891,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7953,10 +7920,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7982,10 +7949,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8011,10 +7978,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8040,10 +8007,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8069,10 +8036,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>5</v>
@@ -8098,10 +8065,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -8127,10 +8094,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8156,10 +8123,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8185,10 +8152,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -8214,10 +8181,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -8243,10 +8210,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>8</v>
@@ -8272,10 +8239,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>5</v>
@@ -8330,10 +8297,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8359,10 +8326,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>11</v>
@@ -8388,10 +8355,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8417,10 +8384,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8446,10 +8413,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
         <v>9</v>
@@ -8475,10 +8442,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8504,10 +8471,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8533,10 +8500,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8562,10 +8529,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8591,10 +8558,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8620,10 +8587,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8649,10 +8616,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8678,10 +8645,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8707,10 +8674,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8736,10 +8703,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8794,10 +8761,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="G181" t="n">
         <v>8</v>
@@ -8823,10 +8790,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -8852,10 +8819,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>12</v>
@@ -8881,10 +8848,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>68</v>
       </c>
       <c r="G184" t="n">
         <v>11</v>
@@ -8910,10 +8877,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>72</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8939,10 +8906,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F186" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -8968,10 +8935,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -9055,10 +9022,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -9084,10 +9051,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>7</v>
@@ -9113,10 +9080,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9142,10 +9109,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>11</v>
@@ -9171,10 +9138,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G194" t="n">
         <v>12</v>
@@ -9229,10 +9196,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>6</v>
@@ -9258,10 +9225,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9287,10 +9254,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9316,10 +9283,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9345,10 +9312,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9374,10 +9341,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>10</v>
@@ -9403,10 +9370,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -9432,10 +9399,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>5</v>
@@ -9461,10 +9428,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>6</v>
@@ -9490,10 +9457,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>12</v>
@@ -9519,10 +9486,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9548,10 +9515,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9577,10 +9544,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9606,10 +9573,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9635,10 +9602,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9664,10 +9631,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -9693,10 +9660,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9722,10 +9689,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9751,10 +9718,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9780,10 +9747,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>7</v>
@@ -9809,10 +9776,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9838,10 +9805,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9867,10 +9834,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9896,10 +9863,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -9925,10 +9892,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9954,10 +9921,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9983,10 +9950,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>186</v>
+      </c>
+      <c r="F222" t="s">
         <v>187</v>
-      </c>
-      <c r="F222" t="s">
-        <v>188</v>
       </c>
       <c r="G222" t="n">
         <v>5</v>
@@ -10012,10 +9979,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G223" t="n">
         <v>5</v>
@@ -10041,10 +10008,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10070,10 +10037,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10099,10 +10066,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G226" t="n">
         <v>6</v>
@@ -10128,10 +10095,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10157,10 +10124,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10186,10 +10153,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10215,10 +10182,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10244,10 +10211,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10273,10 +10240,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10302,10 +10269,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -10331,10 +10298,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10360,10 +10327,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10389,10 +10356,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10418,10 +10385,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10447,10 +10414,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10476,10 +10443,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10505,10 +10472,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10534,10 +10501,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10563,10 +10530,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10592,10 +10559,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10621,10 +10588,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10650,10 +10617,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10679,10 +10646,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>6</v>
@@ -10708,10 +10675,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>5</v>
@@ -10737,10 +10704,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -10766,10 +10733,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -10795,10 +10762,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10824,10 +10791,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10853,10 +10820,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -10882,10 +10849,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10911,10 +10878,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>222</v>
+      </c>
+      <c r="F254" t="s">
         <v>223</v>
-      </c>
-      <c r="F254" t="s">
-        <v>224</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10940,10 +10907,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10969,10 +10936,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11027,10 +10994,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11056,10 +11023,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11085,10 +11052,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -11114,10 +11081,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11143,10 +11110,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11172,10 +11139,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11201,10 +11168,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>359</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11230,10 +11197,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11259,10 +11226,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11288,10 +11255,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11317,10 +11284,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11346,10 +11313,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11375,10 +11342,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11404,10 +11371,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11433,10 +11400,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11462,10 +11429,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11491,10 +11458,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11520,10 +11487,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11549,10 +11516,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11578,10 +11545,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11607,10 +11574,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11636,10 +11603,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11665,10 +11632,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11694,10 +11661,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11723,10 +11690,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11752,10 +11719,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11781,10 +11748,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11810,10 +11777,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11839,10 +11806,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -11868,10 +11835,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11897,10 +11864,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11926,10 +11893,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11955,10 +11922,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11984,10 +11951,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12013,10 +11980,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12042,10 +12009,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12071,10 +12038,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>218</v>
+      </c>
+      <c r="F294" t="s">
         <v>219</v>
-      </c>
-      <c r="F294" t="s">
-        <v>220</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12100,10 +12067,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12129,10 +12096,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12158,10 +12125,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12187,10 +12154,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12216,10 +12183,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12245,10 +12212,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12274,10 +12241,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12303,10 +12270,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12332,10 +12299,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12361,10 +12328,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12390,10 +12357,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G305" t="n">
         <v>5</v>
@@ -12419,10 +12386,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G306" t="n">
         <v>7</v>
@@ -12448,10 +12415,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G307" t="n">
         <v>9</v>
@@ -12477,10 +12444,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12506,10 +12473,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G309" t="n">
         <v>5</v>
@@ -12535,10 +12502,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F310" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12564,10 +12531,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G311" t="n">
         <v>121</v>
@@ -12622,10 +12589,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G313" t="n">
         <v>158</v>
@@ -12651,10 +12618,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G314" t="n">
         <v>13</v>
@@ -12709,10 +12676,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F316" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G316" t="n">
         <v>9</v>
@@ -12738,10 +12705,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12767,10 +12734,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12796,10 +12763,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12825,10 +12792,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -12883,10 +12850,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12912,10 +12879,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12941,10 +12908,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F324" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -12970,10 +12937,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12999,10 +12966,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13028,10 +12995,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13057,10 +13024,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13086,10 +13053,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13115,10 +13082,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13144,10 +13111,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13173,10 +13140,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13202,10 +13169,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13231,10 +13198,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13260,10 +13227,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13289,10 +13256,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13318,10 +13285,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13347,10 +13314,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13376,10 +13343,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13405,10 +13372,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13434,10 +13401,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13463,10 +13430,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13492,10 +13459,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13521,10 +13488,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13550,10 +13517,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13579,10 +13546,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -13608,10 +13575,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13637,10 +13604,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13666,10 +13633,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13695,10 +13662,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G350" t="n">
         <v>6</v>
@@ -13724,10 +13691,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13753,10 +13720,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13782,10 +13749,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13811,10 +13778,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13840,10 +13807,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13869,10 +13836,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13927,10 +13894,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F358" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13956,10 +13923,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F359" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13985,10 +13952,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F360" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14014,10 +13981,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F361" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G361" t="n">
         <v>6</v>
@@ -14043,10 +14010,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F362" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G362" t="n">
         <v>10</v>
@@ -14072,10 +14039,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F363" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14101,10 +14068,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F364" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14130,10 +14097,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F365" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14159,10 +14126,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F366" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14188,10 +14155,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F367" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14217,10 +14184,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F368" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14246,10 +14213,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F369" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14275,10 +14242,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F370" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -14304,10 +14271,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F371" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14333,10 +14300,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F372" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14362,10 +14329,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F373" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14391,10 +14358,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F374" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -14420,10 +14387,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F375" t="s">
-        <v>706</v>
+        <v>142</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14449,10 +14416,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F376" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14478,10 +14445,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F377" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14507,10 +14474,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F378" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G378" t="n">
         <v>8</v>
@@ -14536,10 +14503,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F379" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14565,10 +14532,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F380" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14594,10 +14561,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F381" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14623,10 +14590,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F382" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14652,10 +14619,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F383" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14681,10 +14648,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F384" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14710,10 +14677,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F385" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G385" t="n">
         <v>8</v>
@@ -14739,10 +14706,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F386" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G386" t="n">
         <v>5</v>
@@ -14768,10 +14735,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F387" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14797,10 +14764,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F388" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14826,10 +14793,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F389" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14855,10 +14822,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F390" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14884,10 +14851,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F391" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14913,10 +14880,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F392" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G392" t="n">
         <v>5</v>
@@ -14942,10 +14909,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F393" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14971,10 +14938,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F394" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15000,10 +14967,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15029,10 +14996,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F396" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15058,10 +15025,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F397" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15087,10 +15054,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F398" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15116,10 +15083,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F399" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15145,10 +15112,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F400" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15174,10 +15141,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F401" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15203,10 +15170,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F402" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15232,10 +15199,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F403" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15261,10 +15228,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15290,10 +15257,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F405" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15319,10 +15286,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F406" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15348,10 +15315,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15377,10 +15344,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15406,10 +15373,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15435,10 +15402,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15464,10 +15431,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F411" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15493,10 +15460,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15522,10 +15489,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F413" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15551,10 +15518,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F414" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15580,10 +15547,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F415" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15609,10 +15576,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F416" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15638,10 +15605,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F417" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15667,10 +15634,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F418" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G418" t="n">
         <v>8</v>
@@ -15696,10 +15663,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G419" t="n">
         <v>7</v>
@@ -15725,10 +15692,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F420" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15754,10 +15721,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G421" t="n">
         <v>3</v>
@@ -15783,10 +15750,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15812,10 +15779,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F423" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15841,10 +15808,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15870,10 +15837,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F425" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15899,10 +15866,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F426" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15928,10 +15895,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F427" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15957,10 +15924,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15986,10 +15953,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F429" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16015,10 +15982,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F430" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16044,10 +16011,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16073,10 +16040,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F432" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G432" t="n">
         <v>7</v>
@@ -16102,10 +16069,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F433" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16131,10 +16098,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F434" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16160,10 +16127,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F435" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16189,10 +16156,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F436" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16218,10 +16185,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F437" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G437" t="n">
         <v>26</v>
@@ -16247,10 +16214,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F438" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16276,10 +16243,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F439" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G439" t="n">
         <v>7</v>
@@ -16305,10 +16272,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F440" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16334,10 +16301,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F441" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16363,10 +16330,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F442" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16392,10 +16359,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F443" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16421,10 +16388,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F444" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16450,10 +16417,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F445" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G445" t="n">
         <v>10</v>
@@ -16479,10 +16446,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F446" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16508,10 +16475,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F447" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16537,10 +16504,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F448" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16566,10 +16533,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F449" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16595,10 +16562,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F450" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16624,10 +16591,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F451" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G451" t="n">
         <v>5</v>
@@ -16653,10 +16620,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F452" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G452" t="n">
         <v>9</v>
@@ -16682,10 +16649,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F453" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G453" t="n">
         <v>7</v>
@@ -16711,10 +16678,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F454" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G454" t="n">
         <v>8</v>
@@ -16740,10 +16707,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F455" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G455" t="n">
         <v>8</v>
@@ -16769,10 +16736,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F456" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G456" t="n">
         <v>7</v>
@@ -16798,10 +16765,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F457" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G457" t="n">
         <v>8</v>
@@ -16827,10 +16794,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F458" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G458" t="n">
         <v>7</v>
@@ -16856,10 +16823,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F459" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G459" t="n">
         <v>7</v>
@@ -16885,10 +16852,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F460" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G460" t="n">
         <v>9</v>
@@ -16914,10 +16881,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F461" t="s">
-        <v>866</v>
+        <v>642</v>
       </c>
       <c r="G461" t="n">
         <v>50</v>
@@ -16943,10 +16910,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F462" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G462" t="n">
         <v>6</v>
@@ -17001,10 +16968,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F464" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -17030,10 +16997,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F465" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17059,10 +17026,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F466" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G466" t="n">
         <v>94</v>
@@ -17088,10 +17055,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F467" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17117,10 +17084,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F468" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G468" t="n">
         <v>5</v>
@@ -17146,10 +17113,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F469" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G469" t="n">
         <v>9</v>
@@ -17175,10 +17142,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F470" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17204,10 +17171,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F471" t="s">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17233,10 +17200,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F472" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G472" t="n">
         <v>8</v>
@@ -17262,10 +17229,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F473" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17291,10 +17258,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F474" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17320,10 +17287,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F475" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17349,10 +17316,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F476" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17378,10 +17345,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F477" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17407,10 +17374,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F478" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17436,10 +17403,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F479" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17465,10 +17432,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F480" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17494,10 +17461,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F481" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17523,10 +17490,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F482" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17552,10 +17519,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F483" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17581,10 +17548,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F484" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17610,10 +17577,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F485" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17639,10 +17606,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F486" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17668,10 +17635,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F487" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17697,10 +17664,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F488" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17726,10 +17693,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F489" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17813,10 +17780,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F492" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17842,10 +17809,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F493" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17871,10 +17838,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F494" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17900,10 +17867,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F495" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17929,10 +17896,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F496" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -17958,10 +17925,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F497" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G497" t="n">
         <v>4</v>
@@ -17987,10 +17954,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F498" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G498" t="n">
         <v>4</v>
@@ -18016,10 +17983,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F499" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G499" t="n">
         <v>5</v>
@@ -18045,10 +18012,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F500" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G500" t="n">
         <v>5</v>
@@ -18074,10 +18041,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F501" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G501" t="n">
         <v>6</v>
@@ -18103,10 +18070,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F502" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G502" t="n">
         <v>7</v>
@@ -18132,10 +18099,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F503" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G503" t="n">
         <v>7</v>
@@ -18161,10 +18128,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F504" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G504" t="n">
         <v>4</v>
@@ -18190,10 +18157,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F505" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G505" t="n">
         <v>4</v>
@@ -18219,10 +18186,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F506" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G506" t="n">
         <v>5</v>
@@ -18248,10 +18215,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F507" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G507" t="n">
         <v>4</v>
@@ -18277,10 +18244,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F508" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -18306,10 +18273,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F509" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -18335,10 +18302,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F510" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G510" t="n">
         <v>4</v>
@@ -18364,10 +18331,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F511" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G511" t="n">
         <v>4</v>
@@ -18393,10 +18360,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F512" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18422,10 +18389,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F513" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18451,10 +18418,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18480,10 +18447,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18509,10 +18476,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F516" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G516" t="n">
         <v>14</v>
@@ -18538,10 +18505,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F517" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G517" t="n">
         <v>12</v>
@@ -18567,10 +18534,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F518" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18596,10 +18563,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F519" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G519" t="n">
         <v>17</v>
@@ -18625,10 +18592,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F520" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G520" t="n">
         <v>9</v>
@@ -18654,10 +18621,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F521" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18683,10 +18650,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F522" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18712,10 +18679,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="F523" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18741,10 +18708,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="F524" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -18770,10 +18737,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F525" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G525" t="n">
         <v>53</v>
@@ -18799,10 +18766,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F526" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G526" t="n">
         <v>49</v>
@@ -18828,10 +18795,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F527" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G527" t="n">
         <v>22</v>
@@ -18857,10 +18824,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F528" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G528" t="n">
         <v>73</v>
@@ -18915,10 +18882,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F530" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G530" t="n">
         <v>6</v>
@@ -18944,10 +18911,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F531" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G531" t="n">
         <v>5</v>
@@ -18973,10 +18940,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F532" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19002,10 +18969,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F533" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G533" t="n">
         <v>2</v>
@@ -19031,10 +18998,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="F534" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19060,10 +19027,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F535" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19118,10 +19085,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="F537" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19147,10 +19114,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F538" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G538" t="n">
         <v>4</v>
@@ -19176,10 +19143,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="F539" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19205,10 +19172,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F540" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19234,10 +19201,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F541" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19263,10 +19230,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="F542" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19292,10 +19259,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F543" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G543" t="n">
         <v>2</v>
@@ -19321,10 +19288,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F544" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19350,10 +19317,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F545" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19379,10 +19346,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F546" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19408,10 +19375,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F547" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19437,10 +19404,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F548" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19466,10 +19433,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="F549" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19495,10 +19462,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F550" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19524,10 +19491,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="F551" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19553,10 +19520,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F552" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19611,10 +19578,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F554" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19640,10 +19607,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F555" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19669,10 +19636,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F556" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19698,10 +19665,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F557" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19727,10 +19694,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F558" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G558" t="n">
         <v>4</v>
@@ -19756,10 +19723,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="F559" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19785,10 +19752,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="F560" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19814,10 +19781,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="F561" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G561" t="n">
         <v>2</v>
@@ -19843,10 +19810,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="F562" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19872,10 +19839,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="F563" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19901,10 +19868,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="F564" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -19930,10 +19897,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="F565" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19959,10 +19926,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F566" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -19988,10 +19955,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="F567" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G567" t="n">
         <v>15</v>
@@ -20017,10 +19984,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="F568" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20046,10 +20013,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F569" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20075,10 +20042,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="F570" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20104,10 +20071,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F571" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20133,10 +20100,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="F572" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20162,10 +20129,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="F573" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20191,10 +20158,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F574" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20220,10 +20187,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="F575" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G575" t="n">
         <v>3</v>
@@ -20249,10 +20216,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="F576" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20278,10 +20245,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="F577" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20307,10 +20274,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="F578" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20336,10 +20303,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="F579" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="G579" t="n">
         <v>23</v>
@@ -20365,10 +20332,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="F580" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
